--- a/controller/src/main/resources/jxls_templates/rizhirenbietongji.xlsx
+++ b/controller/src/main/resources/jxls_templates/rizhirenbietongji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PFANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BDD1BE-800E-4E48-8A11-6C34A629EC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B115591-8C72-4633-B2B6-3E88191B28CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,8 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
